--- a/resource/SparkCommands.xlsx
+++ b/resource/SparkCommands.xlsx
@@ -3,11 +3,6 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssubra67\Projects\workspace_satis\CrackingCode\resource\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22830" windowHeight="8055"/>
   </bookViews>
@@ -15,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -81,9 +77,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
   <si>
-    <t>RDD</t>
-  </si>
-  <si>
     <t>Pair RDD</t>
   </si>
   <si>
@@ -1277,6 +1270,9 @@
 EXAMPLES==&gt;select(df.col("name"), 
 --&gt;df.col("age").plus(1))--&gt;select multiple columns
 --&gt;selectExpr("cast(year as int) year", "make", "model", "comment", "blank") ORR select(df.("year").cast(IntegerType).as("year"))</t>
+  </si>
+  <si>
+    <t>RDD -</t>
   </si>
 </sst>
 </file>
@@ -2043,8 +2039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2056,411 +2052,411 @@
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" thickBot="1">
       <c r="A1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="63.75">
+    </row>
+    <row r="2" spans="1:3" ht="51">
       <c r="A2" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="63.75">
       <c r="A3" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60">
       <c r="A4" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="38.25">
       <c r="A5" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="25.5">
       <c r="A6" s="15"/>
       <c r="B6" s="2"/>
       <c r="C6" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="25.5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="16"/>
       <c r="B7" s="2"/>
       <c r="C7" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="60.75" thickBot="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="48.75" thickBot="1">
       <c r="A8" s="17"/>
       <c r="B8" s="18"/>
       <c r="C8" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="204">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="165.75">
       <c r="A9" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="192">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="156">
       <c r="A11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="51">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="25.5">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="38.25">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" ht="89.25">
+    <row r="16" spans="1:3" ht="63.75">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="25.5">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" ht="25.5">
       <c r="A19" s="3"/>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="127.5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="114.75">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="132">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="51">
       <c r="A23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="13.5" thickBot="1">
       <c r="A24" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="38.25">
       <c r="A25" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="60">
+      <c r="A26" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="63.75">
-      <c r="A26" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="39" thickBot="1">
       <c r="A27" s="22"/>
       <c r="B27" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C27" s="24"/>
     </row>
     <row r="28" spans="1:3" ht="25.5">
       <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="39" thickBot="1">
       <c r="A29" s="25"/>
       <c r="B29" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="26"/>
     </row>
     <row r="30" spans="1:3" ht="132">
       <c r="A30" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="140.25">
       <c r="A31" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="77.25" thickBot="1">
       <c r="A32" s="30"/>
       <c r="B32" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="38.25">
       <c r="A33" s="31"/>
       <c r="B33" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="26.25" thickBot="1">
       <c r="A34" s="41"/>
       <c r="B34" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" s="42"/>
     </row>
-    <row r="35" spans="1:3" ht="51">
+    <row r="35" spans="1:3" ht="38.25">
       <c r="A35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>19</v>
-      </c>
       <c r="C35" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="26.25" thickBot="1">
       <c r="A36" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="25.5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="9"/>
       <c r="B37" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="25.5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="28"/>
       <c r="B38" s="3"/>
       <c r="C38" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="25.5">
       <c r="A39" s="38"/>
       <c r="B39" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:3" ht="89.25">
       <c r="A41" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:3" ht="25.5">
       <c r="A42" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3" ht="127.5">
       <c r="A43" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:3" ht="25.5">
       <c r="A44" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:3" ht="51">
       <c r="A45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
